--- a/Produccion.xlsx
+++ b/Produccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41291a4e6da63335/Documentos/8vo semestre/Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{02B0CECB-CD3F-4B82-9A7D-64C2BB3535D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5608BFB-4114-4343-8363-61D8479AA3FB}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{02B0CECB-CD3F-4B82-9A7D-64C2BB3535D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA776D1-A0E9-460B-ABC6-B99F89FC52A5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EEBEEA34-E90F-4518-AB25-F2FEA12A11A5}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{EEBEEA34-E90F-4518-AB25-F2FEA12A11A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Produccion" sheetId="3" r:id="rId1"/>
@@ -708,20 +708,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5C3F7-D832-4B21-A40F-B36A5D6353C6}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1982</v>
       </c>
@@ -809,7 +809,7 @@
         <v>33721</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1983</v>
       </c>
@@ -853,7 +853,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1984</v>
       </c>
@@ -897,7 +897,7 @@
         <v>39152</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1985</v>
       </c>
@@ -941,7 +941,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1986</v>
       </c>
@@ -985,7 +985,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1987</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1988</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1989</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>46270</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1990</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>50372</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1991</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>51599</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1992</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>46528</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1993</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>54004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1994</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>48900</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1995</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>47552</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1996</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>40838</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1997</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1998</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>39487.480900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1999</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>34863.754150000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2000</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>36730.771919999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2001</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>36070.202100000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2002</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>34001.953259999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2003</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>41704.519650000002</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2004</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>36356</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2005</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>37909.314539999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2006</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>30357.358209999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2007</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>33478.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2008</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>37719.089719999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2009</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>36118</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>2010</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>42294.5645</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2011</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>2012</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>2013</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>46738.883800000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>2014</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>2015</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>54797.950680000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>2016</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>56762</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2017</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>60535</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>2018</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>97978</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>2019</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>102154</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>2020</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>63416</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>2021</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>69040</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>2022</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>2023</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>59831</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>2024</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>67678</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>2025</v>
       </c>
@@ -2719,16 +2719,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42026199-1B64-4D63-B428-C4FFDF5F7BE0}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A17" zoomScale="77" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1982</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1983</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1984</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1985</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1986</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1987</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1988</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1989</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1990</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1991</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1992</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1993</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1994</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1995</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1996</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1997</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1998</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1999</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2000</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2001</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2002</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2003</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2004</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2005</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>2006</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2008</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2009</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>2010</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2011</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>2012</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>2013</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>2014</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>2015</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>2016</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2017</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <f>AVERAGE(B2:B37)</f>
         <v>0.10336369506742837</v>

--- a/Produccion.xlsx
+++ b/Produccion.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41291a4e6da63335/Documentos/8vo semestre/Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{02B0CECB-CD3F-4B82-9A7D-64C2BB3535D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA776D1-A0E9-460B-ABC6-B99F89FC52A5}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{02B0CECB-CD3F-4B82-9A7D-64C2BB3535D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4A4A39-CB24-45E8-9148-56B642BB4030}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{EEBEEA34-E90F-4518-AB25-F2FEA12A11A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EEBEEA34-E90F-4518-AB25-F2FEA12A11A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Produccion" sheetId="3" r:id="rId1"/>
     <sheet name="Proporcion" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Proporcion!$L$2:$L$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>TOTAL</t>
   </si>
@@ -102,6 +105,15 @@
   <si>
     <t>DIC</t>
   </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>DESV</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +163,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -173,12 +192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,17 +322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -321,7 +329,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -352,19 +360,20 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{0E52D4AA-A52B-41ED-8E6E-89E2C0F74554}"/>
@@ -708,20 +717,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5C3F7-D832-4B21-A40F-B36A5D6353C6}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1982</v>
       </c>
@@ -809,7 +818,7 @@
         <v>33721</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1983</v>
       </c>
@@ -853,7 +862,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1984</v>
       </c>
@@ -897,7 +906,7 @@
         <v>39152</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1985</v>
       </c>
@@ -941,7 +950,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>1986</v>
       </c>
@@ -985,7 +994,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1987</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1988</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1989</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>46270</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1990</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>50372</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1991</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>51599</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1992</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>46528</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>1993</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>54004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>1994</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>48900</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1995</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>47552</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1996</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>40838</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1997</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>38604</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1998</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>39487.480900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>1999</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>34863.754150000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>2000</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>36730.771919999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2001</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>36070.202100000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2002</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>34001.953259999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2003</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>41704.519650000002</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>2004</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>36356</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>2005</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>37909.314539999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2006</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>30357.358209999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2007</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>33478.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>2008</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>37719.089719999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>2009</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>36118</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>2010</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>42294.5645</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>2011</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>37202</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>2012</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>2013</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>46738.883800000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>2014</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>2015</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>54797.950680000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>2016</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>56762</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>2017</v>
       </c>
@@ -2349,363 +2358,451 @@
         <v>60535</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+    <row r="38" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
         <v>2018</v>
       </c>
-      <c r="B38" s="8" cm="1">
-        <f t="array" ref="B38:M38">Proporcion!$B$39:$M$39*Produccion!N38</f>
-        <v>10127.368115316498</v>
-      </c>
-      <c r="C38" s="8">
-        <v>7357.5248999233409</v>
-      </c>
-      <c r="D38" s="8">
-        <v>6771.8303740898145</v>
-      </c>
-      <c r="E38" s="8">
-        <v>7911.1133948968954</v>
-      </c>
-      <c r="F38" s="8">
-        <v>10143.495282914457</v>
-      </c>
-      <c r="G38" s="8">
-        <v>9956.4405842531178</v>
-      </c>
-      <c r="H38" s="8">
-        <v>7807.5524600502631</v>
-      </c>
-      <c r="I38" s="8">
-        <v>5045.3219391791372</v>
-      </c>
-      <c r="J38" s="8">
-        <v>4295.1975209873772</v>
-      </c>
-      <c r="K38" s="8">
-        <v>6063.165965882712</v>
-      </c>
-      <c r="L38" s="8">
-        <v>9752.2224478857352</v>
-      </c>
-      <c r="M38" s="8">
-        <v>12746.767014620647</v>
-      </c>
-      <c r="N38" s="22">
+      <c r="B38" s="18" cm="1">
+        <f t="array" aca="1" ref="B38:M38" ca="1">Proporcion!B38:M38*Produccion!N38</f>
+        <v>10111.747937970797</v>
+      </c>
+      <c r="C38" s="18">
+        <f ca="1"/>
+        <v>7454.1220868904875</v>
+      </c>
+      <c r="D38" s="18">
+        <f ca="1"/>
+        <v>3106.5032063146487</v>
+      </c>
+      <c r="E38" s="18">
+        <f ca="1"/>
+        <v>7506.6802511888554</v>
+      </c>
+      <c r="F38" s="18">
+        <f ca="1"/>
+        <v>11228.581191713229</v>
+      </c>
+      <c r="G38" s="18">
+        <f ca="1"/>
+        <v>9739.820548998292</v>
+      </c>
+      <c r="H38" s="18">
+        <f ca="1"/>
+        <v>11200.047272568674</v>
+      </c>
+      <c r="I38" s="18">
+        <f ca="1"/>
+        <v>5113.8685562739201</v>
+      </c>
+      <c r="J38" s="18">
+        <f ca="1"/>
+        <v>5901.5347717737122</v>
+      </c>
+      <c r="K38" s="18">
+        <f ca="1"/>
+        <v>3484.0939691506965</v>
+      </c>
+      <c r="L38" s="18">
+        <f ca="1"/>
+        <v>14637.322327574047</v>
+      </c>
+      <c r="M38" s="18">
+        <f ca="1"/>
+        <v>8493.6778795826394</v>
+      </c>
+      <c r="N38" s="19">
         <v>97978</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+    <row r="39" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>2019</v>
       </c>
-      <c r="B39" s="8" cm="1">
-        <f t="array" ref="B39:M39">Proporcion!$B$39:$M$39*Produccion!N39</f>
-        <v>10559.014905918079</v>
-      </c>
-      <c r="C39" s="8">
-        <v>7671.1159507927186</v>
-      </c>
-      <c r="D39" s="8">
-        <v>7060.4580623688071</v>
-      </c>
-      <c r="E39" s="8">
-        <v>8248.2993911112444</v>
-      </c>
-      <c r="F39" s="8">
-        <v>10575.829442638586</v>
-      </c>
-      <c r="G39" s="8">
-        <v>10380.802133578896</v>
-      </c>
-      <c r="H39" s="8">
-        <v>8140.3245014592512</v>
-      </c>
-      <c r="I39" s="8">
-        <v>5260.3627076987241</v>
-      </c>
-      <c r="J39" s="8">
-        <v>4478.2666267829973</v>
-      </c>
-      <c r="K39" s="8">
-        <v>6321.5890922327726</v>
-      </c>
-      <c r="L39" s="8">
-        <v>10167.879849979785</v>
-      </c>
-      <c r="M39" s="8">
-        <v>13290.057335438136</v>
-      </c>
-      <c r="N39" s="22">
+      <c r="B39" s="18" cm="1">
+        <f t="array" aca="1" ref="B39:M39" ca="1">Proporcion!B39:M39*Produccion!N39</f>
+        <v>6791.3327395181132</v>
+      </c>
+      <c r="C39" s="18">
+        <f ca="1"/>
+        <v>6692.6496027359944</v>
+      </c>
+      <c r="D39" s="18">
+        <f ca="1"/>
+        <v>7818.769623066979</v>
+      </c>
+      <c r="E39" s="18">
+        <f ca="1"/>
+        <v>8435.3700937353278</v>
+      </c>
+      <c r="F39" s="18">
+        <f ca="1"/>
+        <v>13065.520444959582</v>
+      </c>
+      <c r="G39" s="18">
+        <f ca="1"/>
+        <v>6013.6470517148937</v>
+      </c>
+      <c r="H39" s="18">
+        <f ca="1"/>
+        <v>7652.9458578775238</v>
+      </c>
+      <c r="I39" s="18">
+        <f ca="1"/>
+        <v>4116.4360293404961</v>
+      </c>
+      <c r="J39" s="18">
+        <f ca="1"/>
+        <v>4275.730401984044</v>
+      </c>
+      <c r="K39" s="18">
+        <f ca="1"/>
+        <v>8926.1285927735353</v>
+      </c>
+      <c r="L39" s="18">
+        <f ca="1"/>
+        <v>12283.249893184326</v>
+      </c>
+      <c r="M39" s="18">
+        <f ca="1"/>
+        <v>16082.219669109172</v>
+      </c>
+      <c r="N39" s="19">
         <v>102154</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+    <row r="40" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
         <v>2020</v>
       </c>
-      <c r="B40" s="8" cm="1">
-        <f t="array" ref="B40:M40">Proporcion!$B$39:$M$39*Produccion!N40</f>
-        <v>6554.9120863960379</v>
-      </c>
-      <c r="C40" s="8">
-        <v>4762.1384295815242</v>
-      </c>
-      <c r="D40" s="8">
-        <v>4383.0492049570285</v>
-      </c>
-      <c r="E40" s="8">
-        <v>5120.4471110941386</v>
-      </c>
-      <c r="F40" s="8">
-        <v>6565.3503527455459</v>
-      </c>
-      <c r="G40" s="8">
-        <v>6444.2796963705705</v>
-      </c>
-      <c r="H40" s="8">
-        <v>5053.41757135834</v>
-      </c>
-      <c r="I40" s="8">
-        <v>3265.5712108328826</v>
-      </c>
-      <c r="J40" s="8">
-        <v>2780.0551755591614</v>
-      </c>
-      <c r="K40" s="8">
-        <v>3924.3680509136548</v>
-      </c>
-      <c r="L40" s="8">
-        <v>6312.1000505738202</v>
-      </c>
-      <c r="M40" s="8">
-        <v>8250.3110596172919</v>
-      </c>
-      <c r="N40" s="22">
+      <c r="B40" s="18" cm="1">
+        <f t="array" aca="1" ref="B40:M40" ca="1">Proporcion!B40:M40*Produccion!N40</f>
+        <v>8368.6954045932616</v>
+      </c>
+      <c r="C40" s="18">
+        <f ca="1"/>
+        <v>6036.5204514727957</v>
+      </c>
+      <c r="D40" s="18">
+        <f ca="1"/>
+        <v>4247.9703955362329</v>
+      </c>
+      <c r="E40" s="18">
+        <f ca="1"/>
+        <v>4843.6498483835903</v>
+      </c>
+      <c r="F40" s="18">
+        <f ca="1"/>
+        <v>7292.0246318404488</v>
+      </c>
+      <c r="G40" s="18">
+        <f ca="1"/>
+        <v>7229.6416884835062</v>
+      </c>
+      <c r="H40" s="18">
+        <f ca="1"/>
+        <v>5309.955832040896</v>
+      </c>
+      <c r="I40" s="18">
+        <f ca="1"/>
+        <v>2683.0866488306096</v>
+      </c>
+      <c r="J40" s="18">
+        <f ca="1"/>
+        <v>2604.5717951389356</v>
+      </c>
+      <c r="K40" s="18">
+        <f ca="1"/>
+        <v>3817.1408201043255</v>
+      </c>
+      <c r="L40" s="18">
+        <f ca="1"/>
+        <v>7209.9938433232137</v>
+      </c>
+      <c r="M40" s="18">
+        <f ca="1"/>
+        <v>3772.7486402521836</v>
+      </c>
+      <c r="N40" s="19">
         <v>63416</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="41" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
         <v>2021</v>
       </c>
-      <c r="B41" s="8" cm="1">
-        <f t="array" ref="B41:M41">Proporcion!$B$39:$M$39*Produccion!N41</f>
-        <v>7136.2295074552549</v>
-      </c>
-      <c r="C41" s="8">
-        <v>5184.4650747178694</v>
-      </c>
-      <c r="D41" s="8">
-        <v>4771.75660890364</v>
-      </c>
-      <c r="E41" s="8">
-        <v>5574.5500906701673</v>
-      </c>
-      <c r="F41" s="8">
-        <v>7147.5934835617591</v>
-      </c>
-      <c r="G41" s="8">
-        <v>7015.7857675890027</v>
-      </c>
-      <c r="H41" s="8">
-        <v>5501.5760868957332</v>
-      </c>
-      <c r="I41" s="8">
-        <v>3555.1759239924027</v>
-      </c>
-      <c r="J41" s="8">
-        <v>3026.6022663145659</v>
-      </c>
-      <c r="K41" s="8">
-        <v>4272.3976636034868</v>
-      </c>
-      <c r="L41" s="8">
-        <v>6871.8838698690633</v>
-      </c>
-      <c r="M41" s="8">
-        <v>8981.9836564270499</v>
-      </c>
-      <c r="N41" s="22">
+      <c r="B41" s="18" cm="1">
+        <f t="array" aca="1" ref="B41:M41" ca="1">Proporcion!B41:M41*Produccion!N41</f>
+        <v>5347.4268490857203</v>
+      </c>
+      <c r="C41" s="18">
+        <f ca="1"/>
+        <v>3648.3050256822712</v>
+      </c>
+      <c r="D41" s="18">
+        <f ca="1"/>
+        <v>4114.8676375261921</v>
+      </c>
+      <c r="E41" s="18">
+        <f ca="1"/>
+        <v>5419.1324342130365</v>
+      </c>
+      <c r="F41" s="18">
+        <f ca="1"/>
+        <v>7817.9326601846733</v>
+      </c>
+      <c r="G41" s="18">
+        <f ca="1"/>
+        <v>7345.6443357807648</v>
+      </c>
+      <c r="H41" s="18">
+        <f ca="1"/>
+        <v>5851.8836609664113</v>
+      </c>
+      <c r="I41" s="18">
+        <f ca="1"/>
+        <v>3182.5953478304832</v>
+      </c>
+      <c r="J41" s="18">
+        <f ca="1"/>
+        <v>2427.1818605347535</v>
+      </c>
+      <c r="K41" s="18">
+        <f ca="1"/>
+        <v>5145.970200671728</v>
+      </c>
+      <c r="L41" s="18">
+        <f ca="1"/>
+        <v>5894.6541771553248</v>
+      </c>
+      <c r="M41" s="18">
+        <f ca="1"/>
+        <v>12844.405810368637</v>
+      </c>
+      <c r="N41" s="19">
         <v>69040</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+    <row r="42" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
         <v>2022</v>
       </c>
-      <c r="B42" s="8" cm="1">
-        <f t="array" ref="B42:M42">Proporcion!$B$39:$M$39*Produccion!N42</f>
-        <v>6424.8805580012131</v>
-      </c>
-      <c r="C42" s="8">
-        <v>4667.6706273799728</v>
-      </c>
-      <c r="D42" s="8">
-        <v>4296.1014961794963</v>
-      </c>
-      <c r="E42" s="8">
-        <v>5018.8714446100266</v>
-      </c>
-      <c r="F42" s="8">
-        <v>6435.1117576945517</v>
-      </c>
-      <c r="G42" s="8">
-        <v>6316.4428120190787</v>
-      </c>
-      <c r="H42" s="8">
-        <v>4953.1715876197131</v>
-      </c>
-      <c r="I42" s="8">
-        <v>3200.7912092050951</v>
-      </c>
-      <c r="J42" s="8">
-        <v>2724.9064842059788</v>
-      </c>
-      <c r="K42" s="8">
-        <v>3846.5193217593505</v>
-      </c>
-      <c r="L42" s="8">
-        <v>6186.8852488893581</v>
-      </c>
-      <c r="M42" s="8">
-        <v>8086.6474524361611</v>
-      </c>
-      <c r="N42" s="22">
+      <c r="B42" s="18" cm="1">
+        <f t="array" aca="1" ref="B42:M42" ca="1">Proporcion!B42:M42*Produccion!N42</f>
+        <v>6211.7394066441911</v>
+      </c>
+      <c r="C42" s="18">
+        <f ca="1"/>
+        <v>4211.2677784749949</v>
+      </c>
+      <c r="D42" s="18">
+        <f ca="1"/>
+        <v>2098.0231878830373</v>
+      </c>
+      <c r="E42" s="18">
+        <f ca="1"/>
+        <v>5693.6491440994459</v>
+      </c>
+      <c r="F42" s="18">
+        <f ca="1"/>
+        <v>6131.0670449502004</v>
+      </c>
+      <c r="G42" s="18">
+        <f ca="1"/>
+        <v>4569.8621767722543</v>
+      </c>
+      <c r="H42" s="18">
+        <f ca="1"/>
+        <v>4609.0065869183809</v>
+      </c>
+      <c r="I42" s="18">
+        <f ca="1"/>
+        <v>3266.1142454097253</v>
+      </c>
+      <c r="J42" s="18">
+        <f ca="1"/>
+        <v>2086.1316638794606</v>
+      </c>
+      <c r="K42" s="18">
+        <f ca="1"/>
+        <v>4131.4051927202499</v>
+      </c>
+      <c r="L42" s="18">
+        <f ca="1"/>
+        <v>6452.9564390450405</v>
+      </c>
+      <c r="M42" s="18">
+        <f ca="1"/>
+        <v>12696.77713320303</v>
+      </c>
+      <c r="N42" s="19">
         <v>62158</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+    <row r="43" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
         <v>2023</v>
       </c>
-      <c r="B43" s="8" cm="1">
-        <f t="array" ref="B43:M43">Proporcion!$B$39:$M$39*Produccion!N43</f>
-        <v>6184.3532395793072</v>
-      </c>
-      <c r="C43" s="8">
-        <v>4492.9277213998384</v>
-      </c>
-      <c r="D43" s="8">
-        <v>4135.2689696887846</v>
-      </c>
-      <c r="E43" s="8">
-        <v>4830.9806847463324</v>
-      </c>
-      <c r="F43" s="8">
-        <v>6194.2014153386963</v>
-      </c>
-      <c r="G43" s="8">
-        <v>6079.9750617123063</v>
-      </c>
-      <c r="H43" s="8">
-        <v>4767.74042374071</v>
-      </c>
-      <c r="I43" s="8">
-        <v>3080.9636545247599</v>
-      </c>
-      <c r="J43" s="8">
-        <v>2622.8945567188121</v>
-      </c>
-      <c r="K43" s="8">
-        <v>3702.5177377036534</v>
-      </c>
-      <c r="L43" s="8">
-        <v>5955.2677262186553</v>
-      </c>
-      <c r="M43" s="8">
-        <v>7783.9088086281408</v>
-      </c>
-      <c r="N43" s="22">
+      <c r="B43" s="18" cm="1">
+        <f t="array" aca="1" ref="B43:M43" ca="1">Proporcion!B43:M43*Produccion!N43</f>
+        <v>8586.4181183679175</v>
+      </c>
+      <c r="C43" s="18">
+        <f ca="1"/>
+        <v>4354.535128509503</v>
+      </c>
+      <c r="D43" s="18">
+        <f ca="1"/>
+        <v>4427.3410444316996</v>
+      </c>
+      <c r="E43" s="18">
+        <f ca="1"/>
+        <v>3980.3758480205852</v>
+      </c>
+      <c r="F43" s="18">
+        <f ca="1"/>
+        <v>6113.5609197127151</v>
+      </c>
+      <c r="G43" s="18">
+        <f ca="1"/>
+        <v>5129.1484914383836</v>
+      </c>
+      <c r="H43" s="18">
+        <f ca="1"/>
+        <v>4897.0513968537362</v>
+      </c>
+      <c r="I43" s="18">
+        <f ca="1"/>
+        <v>2305.6503024715412</v>
+      </c>
+      <c r="J43" s="18">
+        <f ca="1"/>
+        <v>2503.1447106180408</v>
+      </c>
+      <c r="K43" s="18">
+        <f ca="1"/>
+        <v>3643.04262714274</v>
+      </c>
+      <c r="L43" s="18">
+        <f ca="1"/>
+        <v>5192.9786124016973</v>
+      </c>
+      <c r="M43" s="18">
+        <f ca="1"/>
+        <v>8697.7528000314414</v>
+      </c>
+      <c r="N43" s="19">
         <v>59831</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+    <row r="44" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
         <v>2024</v>
       </c>
-      <c r="B44" s="21" cm="1">
-        <f t="array" ref="B44:M44">Proporcion!$B$39:$M$39*Produccion!N44</f>
-        <v>6995.4481547734176</v>
-      </c>
-      <c r="C44" s="21">
-        <v>5082.1875337015645</v>
-      </c>
-      <c r="D44" s="21">
-        <v>4677.6208542494287</v>
-      </c>
-      <c r="E44" s="21">
-        <v>5464.5770717899131</v>
-      </c>
-      <c r="F44" s="21">
-        <v>7006.5879458356421</v>
-      </c>
-      <c r="G44" s="21">
-        <v>6877.3804921623478</v>
-      </c>
-      <c r="H44" s="21">
-        <v>5393.0426768384914</v>
-      </c>
-      <c r="I44" s="21">
-        <v>3485.0405009263877</v>
-      </c>
-      <c r="J44" s="21">
-        <v>2966.894382671454</v>
-      </c>
-      <c r="K44" s="21">
-        <v>4188.1131094634529</v>
-      </c>
-      <c r="L44" s="21">
-        <v>6736.3174470596541</v>
-      </c>
-      <c r="M44" s="21">
-        <v>8804.7898305282433</v>
-      </c>
-      <c r="N44" s="23">
+      <c r="B44" s="18" cm="1">
+        <f t="array" aca="1" ref="B44:M44" ca="1">Proporcion!B44:M44*Produccion!N44</f>
+        <v>4682.3148403163232</v>
+      </c>
+      <c r="C44" s="18">
+        <f ca="1"/>
+        <v>5485.1726456336646</v>
+      </c>
+      <c r="D44" s="18">
+        <f ca="1"/>
+        <v>4716.3078145468335</v>
+      </c>
+      <c r="E44" s="18">
+        <f ca="1"/>
+        <v>6595.8190400590647</v>
+      </c>
+      <c r="F44" s="18">
+        <f ca="1"/>
+        <v>4999.0633864409283</v>
+      </c>
+      <c r="G44" s="18">
+        <f ca="1"/>
+        <v>7447.9602797134385</v>
+      </c>
+      <c r="H44" s="18">
+        <f ca="1"/>
+        <v>5444.0611868763899</v>
+      </c>
+      <c r="I44" s="18">
+        <f ca="1"/>
+        <v>4446.2120646551011</v>
+      </c>
+      <c r="J44" s="18">
+        <f ca="1"/>
+        <v>3504.0246883851951</v>
+      </c>
+      <c r="K44" s="18">
+        <f ca="1"/>
+        <v>5385.6790677665749</v>
+      </c>
+      <c r="L44" s="18">
+        <f ca="1"/>
+        <v>7388.8695136223378</v>
+      </c>
+      <c r="M44" s="18">
+        <f ca="1"/>
+        <v>7582.5154719841448</v>
+      </c>
+      <c r="N44" s="19">
         <v>67678</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+    <row r="45" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
         <v>2025</v>
       </c>
       <c r="B45" s="18" cm="1">
-        <f t="array" ref="B45:M45">Proporcion!$B$39:$M$39*Produccion!N45</f>
-        <v>6659.1647092410458</v>
+        <f t="array" aca="1" ref="B45:M45" ca="1">Proporcion!B45:M45*Produccion!N45</f>
+        <v>9514.6545558493435</v>
       </c>
       <c r="C45" s="18">
-        <v>4837.8778773561535</v>
+        <f ca="1"/>
+        <v>5410.0309765271813</v>
       </c>
       <c r="D45" s="18">
-        <v>4452.7594267956756</v>
+        <f ca="1"/>
+        <v>4485.554779177548</v>
       </c>
       <c r="E45" s="18">
-        <v>5201.8852805821152</v>
+        <f ca="1"/>
+        <v>3731.8902605966164</v>
       </c>
       <c r="F45" s="18">
-        <v>6669.7689910352392</v>
+        <f ca="1"/>
+        <v>6421.037168220616</v>
       </c>
       <c r="G45" s="18">
-        <v>6546.7727659706616</v>
+        <f ca="1"/>
+        <v>6389.2961007419208</v>
       </c>
       <c r="H45" s="18">
-        <v>5133.789669290597</v>
+        <f ca="1"/>
+        <v>4222.8409078839641</v>
       </c>
       <c r="I45" s="18">
-        <v>3317.5084998963057</v>
+        <f ca="1"/>
+        <v>3199.7579917170833</v>
       </c>
       <c r="J45" s="18">
-        <v>2824.2705730939942</v>
+        <f ca="1"/>
+        <v>2612.3873307955491</v>
       </c>
       <c r="K45" s="18">
-        <v>3986.7831766887198</v>
+        <f ca="1"/>
+        <v>3872.9634335546157</v>
       </c>
       <c r="L45" s="18">
-        <v>6412.4908685221098</v>
+        <f ca="1"/>
+        <v>5725.1702210880694</v>
       </c>
       <c r="M45" s="18">
-        <v>8381.5281615273761</v>
-      </c>
-      <c r="N45" s="24">
+        <f ca="1"/>
+        <v>8839.0162738474937</v>
+      </c>
+      <c r="N45" s="19">
         <f>AVERAGE(N40:N44)</f>
         <v>64424.6</v>
       </c>
@@ -2717,18 +2814,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42026199-1B64-4D63-B428-C4FFDF5F7BE0}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="77" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2771,8 +2868,17 @@
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1982</v>
       </c>
@@ -2828,8 +2934,18 @@
         <f>SUM(B2:M2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q2" t="str" cm="1">
+        <f t="array" ref="Q2:Q13">TRANSPOSE(B1:M1)</f>
+        <v>ENERO</v>
+      </c>
+      <c r="R2">
+        <v>0.1033</v>
+      </c>
+      <c r="S2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1983</v>
       </c>
@@ -2882,11 +2998,20 @@
         <v>0.13377593360995851</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N39" si="0">SUM(B3:M3)</f>
+        <f t="shared" ref="N3:N45" si="0">SUM(B3:M3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q3" t="str">
+        <v>FEBR</v>
+      </c>
+      <c r="R3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1984</v>
       </c>
@@ -2942,8 +3067,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q4" t="str">
+        <v>MARZ</v>
+      </c>
+      <c r="R4">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1985</v>
       </c>
@@ -2999,8 +3133,17 @@
         <f t="shared" si="0"/>
         <v>0.99999999999999978</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q5" t="str">
+        <v>ABRIL</v>
+      </c>
+      <c r="R5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>1986</v>
       </c>
@@ -3056,8 +3199,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q6" t="str">
+        <v>MAYO</v>
+      </c>
+      <c r="R6">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="S6">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1987</v>
       </c>
@@ -3113,8 +3265,17 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q7" t="str">
+        <v>JUNIO</v>
+      </c>
+      <c r="R7">
+        <v>0.1016</v>
+      </c>
+      <c r="S7">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1988</v>
       </c>
@@ -3170,8 +3331,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q8" t="str">
+        <v>JULIO</v>
+      </c>
+      <c r="R8">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1989</v>
       </c>
@@ -3227,8 +3397,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q9" t="str">
+        <v>AGOT</v>
+      </c>
+      <c r="R9">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1990</v>
       </c>
@@ -3284,8 +3463,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q10" t="str">
+        <v>SEPT</v>
+      </c>
+      <c r="R10">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.026E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1991</v>
       </c>
@@ -3341,8 +3529,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q11" t="str">
+        <v>OCT</v>
+      </c>
+      <c r="R11">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="S11">
+        <v>1.367E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1992</v>
       </c>
@@ -3398,8 +3595,17 @@
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q12" t="str">
+        <v>NOV</v>
+      </c>
+      <c r="R12">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>1993</v>
       </c>
@@ -3455,8 +3661,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q13" t="str">
+        <v>DIC</v>
+      </c>
+      <c r="R13">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="S13">
+        <v>2.5069999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>1994</v>
       </c>
@@ -3513,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1995</v>
       </c>
@@ -3570,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1996</v>
       </c>
@@ -3627,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1997</v>
       </c>
@@ -3684,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1998</v>
       </c>
@@ -3741,7 +3956,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>1999</v>
       </c>
@@ -3798,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>2000</v>
       </c>
@@ -3855,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2001</v>
       </c>
@@ -3912,7 +4127,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2002</v>
       </c>
@@ -3969,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2003</v>
       </c>
@@ -4026,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>2004</v>
       </c>
@@ -4083,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>2005</v>
       </c>
@@ -4140,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2006</v>
       </c>
@@ -4197,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2007</v>
       </c>
@@ -4254,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>2008</v>
       </c>
@@ -4311,7 +4526,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>2009</v>
       </c>
@@ -4368,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>2010</v>
       </c>
@@ -4425,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>2011</v>
       </c>
@@ -4482,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>2012</v>
       </c>
@@ -4539,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>2013</v>
       </c>
@@ -4596,7 +4811,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>2014</v>
       </c>
@@ -4653,7 +4868,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>2015</v>
       </c>
@@ -4710,7 +4925,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>2016</v>
       </c>
@@ -4767,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>2017</v>
       </c>
@@ -4824,58 +5039,460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
-        <f>AVERAGE(B2:B37)</f>
-        <v>0.10336369506742837</v>
-      </c>
-      <c r="C39" s="17">
-        <f t="shared" ref="C39:M39" si="1">AVERAGE(C2:C37)</f>
-        <v>7.5093642449563583E-2</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="1"/>
-        <v>6.9115825737306485E-2</v>
-      </c>
-      <c r="E39" s="17">
-        <f t="shared" si="1"/>
-        <v>8.0743773039834404E-2</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="1"/>
-        <v>0.10352829495309616</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="1"/>
-        <v>0.10161914495349077</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="1"/>
-        <v>7.9686791525140979E-2</v>
-      </c>
-      <c r="I39" s="17">
-        <f t="shared" si="1"/>
-        <v>5.1494436906031324E-2</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="1"/>
-        <v>4.3838387403165785E-2</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" si="1"/>
-        <v>6.1882932555091065E-2</v>
-      </c>
-      <c r="L39" s="17">
-        <f t="shared" si="1"/>
-        <v>9.9534818509111583E-2</v>
-      </c>
-      <c r="M39" s="17">
-        <f t="shared" si="1"/>
-        <v>0.13009825690073942</v>
-      </c>
-      <c r="N39" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$2,$S$2)</f>
+        <v>0.10320426971331112</v>
+      </c>
+      <c r="C38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$3,$S$3)</f>
+        <v>7.6079549356901421E-2</v>
+      </c>
+      <c r="D38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$4,$S$4)</f>
+        <v>3.1706130011988902E-2</v>
+      </c>
+      <c r="E38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$5,$S$5)</f>
+        <v>7.6615977578526354E-2</v>
+      </c>
+      <c r="F38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$6,$S$6)</f>
+        <v>0.11460308632257475</v>
+      </c>
+      <c r="G38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$7,$S$7)</f>
+        <v>9.940824010490408E-2</v>
+      </c>
+      <c r="H38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$8,$S$8)</f>
+        <v>0.11431185850465078</v>
+      </c>
+      <c r="I38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$9,$S$9)</f>
+        <v>5.2194049238338404E-2</v>
+      </c>
+      <c r="J38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$10,$S$10)</f>
+        <v>6.023326432233473E-2</v>
+      </c>
+      <c r="K38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$11,$S$11)</f>
+        <v>3.5559962125688384E-2</v>
+      </c>
+      <c r="L38" s="21">
+        <f ca="1">NORMINV(RAND(),$R$12,$S$12)</f>
+        <v>0.1493939693357085</v>
+      </c>
+      <c r="M38" s="21">
+        <f ca="1">1-SUM(B38:L38)</f>
+        <v>8.6689643385072568E-2</v>
+      </c>
+      <c r="N38" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B39" s="21">
+        <f t="shared" ref="B39:B45" ca="1" si="1">NORMINV(RAND(),$R$2,$S$2)</f>
+        <v>6.6481319767391522E-2</v>
+      </c>
+      <c r="C39" s="21">
+        <f t="shared" ref="C39:C45" ca="1" si="2">NORMINV(RAND(),$R$3,$S$3)</f>
+        <v>6.5515296539890702E-2</v>
+      </c>
+      <c r="D39" s="21">
+        <f t="shared" ref="D39:D45" ca="1" si="3">NORMINV(RAND(),$R$4,$S$4)</f>
+        <v>7.6539045197123748E-2</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E45" ca="1" si="4">NORMINV(RAND(),$R$5,$S$5)</f>
+        <v>8.2575034690127919E-2</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" ref="F39:F45" ca="1" si="5">NORMINV(RAND(),$R$6,$S$6)</f>
+        <v>0.12790023342169257</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" ref="G39:G45" ca="1" si="6">NORMINV(RAND(),$R$7,$S$7)</f>
+        <v>5.8868444228467744E-2</v>
+      </c>
+      <c r="H39" s="21">
+        <f t="shared" ref="H39:H45" ca="1" si="7">NORMINV(RAND(),$R$8,$S$8)</f>
+        <v>7.4915772831974509E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" ref="I39:I45" ca="1" si="8">NORMINV(RAND(),$R$9,$S$9)</f>
+        <v>4.0296376346892891E-2</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" ref="J39:J45" ca="1" si="9">NORMINV(RAND(),$R$10,$S$10)</f>
+        <v>4.1855731561995062E-2</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" ref="K39:K45" ca="1" si="10">NORMINV(RAND(),$R$11,$S$11)</f>
+        <v>8.7379139267904693E-2</v>
+      </c>
+      <c r="L39" s="21">
+        <f t="shared" ref="L39:L45" ca="1" si="11">NORMINV(RAND(),$R$12,$S$12)</f>
+        <v>0.12024247599882849</v>
+      </c>
+      <c r="M39" s="21">
+        <f t="shared" ref="M39:M45" ca="1" si="12">1-SUM(B39:L39)</f>
+        <v>0.15743113014771004</v>
+      </c>
+      <c r="N39" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B40" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13196504674834839</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5189233812804266E-2</v>
+      </c>
+      <c r="D40" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6985782697367116E-2</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.6378987138633628E-2</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11498714254825988</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11400343270599701</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.3732115428927972E-2</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.2309301261993969E-2</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.1071209081918372E-2</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.0192078026118416E-2</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1136936079746943</v>
+      </c>
+      <c r="M40" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.9492062574936666E-2</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7454038949677298E-2</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2843352052176579E-2</v>
+      </c>
+      <c r="D41" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9601211435779143E-2</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.8492648235994153E-2</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11323772682770385</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.1063969341799068</v>
+      </c>
+      <c r="H41" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.4760771450846054E-2</v>
+      </c>
+      <c r="I41" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.609784686892357E-2</v>
+      </c>
+      <c r="J41" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.5156168315972673E-2</v>
+      </c>
+      <c r="K41" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.4536068955268361E-2</v>
+      </c>
+      <c r="L41" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.5380274871890566E-2</v>
+      </c>
+      <c r="M41" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18604295785586089</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9934673037166438E-2</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7751018026239507E-2</v>
+      </c>
+      <c r="D42" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3753067793092395E-2</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1599619423074194E-2</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8636813361919637E-2</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3520096798034909E-2</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.4149853388435619E-2</v>
+      </c>
+      <c r="I42" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.254535611521808E-2</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.3561756553934501E-2</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.646618605360935E-2</v>
+      </c>
+      <c r="L42" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10381538078839474</v>
+      </c>
+      <c r="M42" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.20426617866088081</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14351119182978586</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2780584120430925E-2</v>
+      </c>
+      <c r="D43" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3997443539832189E-2</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6526981799077151E-2</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10218049037643889</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5727273343891686E-2</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.1848061988830809E-2</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.8536048243745569E-2</v>
+      </c>
+      <c r="J43" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.183691916595144E-2</v>
+      </c>
+      <c r="K43" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.0888880799965572E-2</v>
+      </c>
+      <c r="L43" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.6794113626743621E-2</v>
+      </c>
+      <c r="M43" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.14537201116530629</v>
+      </c>
+      <c r="N43" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9185183372976786E-2</v>
+      </c>
+      <c r="C44" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1048090156825917E-2</v>
+      </c>
+      <c r="D44" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9687458473164599E-2</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.7458835072831124E-2</v>
+      </c>
+      <c r="F44" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.3865412489153473E-2</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11004994650718754</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.0440633394550515E-2</v>
+      </c>
+      <c r="I44" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.5696564092542639E-2</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.1774944418942564E-2</v>
+      </c>
+      <c r="K44" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.9577987939457057E-2</v>
+      </c>
+      <c r="L44" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10917683019034749</v>
+      </c>
+      <c r="M44" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.11203811389202023</v>
+      </c>
+      <c r="N44" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="21">
+        <f ca="1">NORMINV(RAND(),$R$2,$S$2)</f>
+        <v>0.14768666869253894</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3974614922361662E-2</v>
+      </c>
+      <c r="D45" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9624875888675261E-2</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.7926479335480799E-2</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.966747435328456E-2</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.9174788834419159E-2</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5547025637473333E-2</v>
+      </c>
+      <c r="I45" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.9666711034559524E-2</v>
+      </c>
+      <c r="J45" s="21">
+        <f ca="1">NORMINV(RAND(),$R$10,$S$10)</f>
+        <v>4.0549531247311574E-2</v>
+      </c>
+      <c r="K45" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.0116220101554617E-2</v>
+      </c>
+      <c r="L45" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.8866212923139135E-2</v>
+      </c>
+      <c r="M45" s="21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.13719939702920148</v>
+      </c>
+      <c r="N45" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
